--- a/Выдача печатной продукции.xlsx
+++ b/Выдача печатной продукции.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t xml:space="preserve">дата </t>
   </si>
@@ -40,6 +40,15 @@
   </si>
   <si>
     <t>Скобки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сабина </t>
+  </si>
+  <si>
+    <t>Книжки от Наташи на раздачу 2 листа</t>
+  </si>
+  <si>
+    <t>Люда</t>
   </si>
 </sst>
 </file>
@@ -447,16 +456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -501,6 +510,34 @@
       </c>
       <c r="D4">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>41128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>41129</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
